--- a/Semester4GameDevProject/Documentation/Project_TimeActivity.xlsx
+++ b/Semester4GameDevProject/Documentation/Project_TimeActivity.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -160,6 +160,48 @@
   </si>
   <si>
     <t>Added dash, crouch, interact, inventory and attack to the game manager. Made the custom inputs br what controls the character instead of unitys (except for W, A, S, D and attack)</t>
+  </si>
+  <si>
+    <t>Started on the optionsmenu and added back buttons on inputmeny and optionsmenu, and polished up code/UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the playermovement, trying to make the jump, dash and crouch to work as intended. </t>
+  </si>
+  <si>
+    <t>Created the UI for the default screen and worked on getting the interactions to work</t>
+  </si>
+  <si>
+    <t>Worked on the inventory system, managed to create 2 inventory systems, one for the player and one for the players proximity.</t>
+  </si>
+  <si>
+    <t>Continued on making the interactions. Started on making the different panels for dialogue, trading and quest log</t>
+  </si>
+  <si>
+    <t>Finnished creating the oprions menu, added apply button, fullscreen toggle, resolution, texture quality, anti aliasing, vsync and audio volume</t>
+  </si>
+  <si>
+    <t>Created the dialogue for talking to an NPC</t>
+  </si>
+  <si>
+    <t>Created scripts for character stats and started on the equip weapon.</t>
+  </si>
+  <si>
+    <t>Integrated the animations for the temporarly player so i coudl get the logic and code down</t>
+  </si>
+  <si>
+    <t>Started on the equpWeapon and inventory controller</t>
+  </si>
+  <si>
+    <t>Started on the weaponAttack</t>
+  </si>
+  <si>
+    <t>Got done with the basicAttack of the character. Can now swing a weapon and damage an enemy, still only have a stand in model</t>
+  </si>
+  <si>
+    <t>Hooked up the healthSlider to code so it changes based on the players health and the numbers show the players healt. Started working on item consumables.</t>
+  </si>
+  <si>
+    <t>Refactored some of the code so the gameobjects is added in the code automatically if they are null instead of adding them all manually. Created consumables and consumablescontroller</t>
   </si>
 </sst>
 </file>
@@ -596,6 +638,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -617,26 +677,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1159,7 +1201,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1870</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,11 +1425,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="100"/>
-        <c:axId val="-638614320"/>
-        <c:axId val="-638624112"/>
+        <c:axId val="-1217676528"/>
+        <c:axId val="-1217667824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-638614320"/>
+        <c:axId val="-1217676528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1439,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-638624112"/>
+        <c:crossAx val="-1217667824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1405,7 +1447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-638624112"/>
+        <c:axId val="-1217667824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-638614320"/>
+        <c:crossAx val="-1217676528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2111,7 +2153,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="List" displayName="List" ref="E5:J24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="List" displayName="List" ref="E5:J38" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Subject" dataDxfId="4"/>
@@ -2420,10 +2462,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2460,31 +2502,31 @@
       <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="G2" s="7"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="23"/>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="47">
         <f>SUM(B17,B13,B9,B5)</f>
-        <v>2620</v>
-      </c>
-      <c r="O2" s="43" t="s">
+        <v>4380</v>
+      </c>
+      <c r="O2" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="39">
         <f>SUMIF(List[Subject],Category1,List[Minutes])/60</f>
         <v>0</v>
       </c>
@@ -2495,33 +2537,33 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" s="23"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="44"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" s="23"/>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="52">
         <f>SUM(N2)/60</f>
-        <v>43.666666666666664</v>
-      </c>
-      <c r="O4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49">
+      <c r="A5" s="41"/>
+      <c r="B5" s="43">
         <f>SUMIF(List[Subject],Category1,List[Minutes])</f>
         <v>0</v>
       </c>
@@ -2546,13 +2588,13 @@
       <c r="J5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="44"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="14"/>
       <c r="E6" s="28">
         <v>43150</v>
@@ -2574,12 +2616,12 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="39">
         <f>SUMIF(List[Subject],Category2,List[Minutes])/60</f>
-        <v>31.166666666666668</v>
+        <v>60.5</v>
       </c>
       <c r="C7" s="15"/>
       <c r="E7" s="31">
@@ -2602,8 +2644,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
@@ -2627,10 +2669,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49">
+      <c r="A9" s="41"/>
+      <c r="B9" s="43">
         <f>SUMIF(List[Subject],Category2,List[Minutes])</f>
-        <v>1870</v>
+        <v>3630</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>10</v>
@@ -2655,8 +2697,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="16"/>
       <c r="E10" s="31">
         <v>43153</v>
@@ -2678,10 +2720,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="39">
         <f>SUMIF(List[Subject],Category3,List[Minutes])/60</f>
         <v>12.5</v>
       </c>
@@ -2706,8 +2748,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
@@ -2731,8 +2773,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49">
+      <c r="A13" s="41"/>
+      <c r="B13" s="43">
         <f>SUMIF(List[Subject],Category3,List[Minutes])</f>
         <v>750</v>
       </c>
@@ -2760,8 +2802,8 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="17"/>
       <c r="E14" s="31">
         <v>43158</v>
@@ -2784,10 +2826,10 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="39">
         <f>SUMIF(List[Subject],Category4,List[Minutes])/60</f>
         <v>0</v>
       </c>
@@ -2813,8 +2855,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="10" t="s">
         <v>9</v>
       </c>
@@ -2839,8 +2881,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49">
+      <c r="A17" s="41"/>
+      <c r="B17" s="43">
         <f>SUMIF(List[Subject],Category4,List[Minutes])</f>
         <v>0</v>
       </c>
@@ -2868,8 +2910,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="17"/>
       <c r="D18" s="5"/>
       <c r="E18" s="31">
@@ -3015,17 +3057,288 @@
         <v>37</v>
       </c>
     </row>
+    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="31">
+        <v>43183</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="33">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H25" s="34">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I25" s="35">
+        <v>120</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="31">
+        <v>43184</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="33">
+        <v>0.59375</v>
+      </c>
+      <c r="H26" s="34">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="I26" s="35">
+        <v>150</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="31">
+        <v>43191</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="33">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H27" s="34">
+        <v>0.125</v>
+      </c>
+      <c r="I27" s="35">
+        <v>180</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="31">
+        <v>43195</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="33">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="H28" s="34">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I28" s="35">
+        <v>120</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="31">
+        <v>43197</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="33">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H29" s="34">
+        <v>0.125</v>
+      </c>
+      <c r="I29" s="35">
+        <v>180</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="31">
+        <v>43198</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="33">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H30" s="34">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I30" s="35">
+        <v>120</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="31">
+        <v>43200</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="33">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H31" s="34">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="I31" s="35">
+        <v>150</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="31">
+        <v>43204</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="33">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H32" s="34">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="I32" s="35">
+        <v>70</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="31">
+        <v>43209</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="33">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="H33" s="34">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="I33" s="35">
+        <v>140</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="31">
+        <v>43210</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="33">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H34" s="34">
+        <v>9.375E-2</v>
+      </c>
+      <c r="I34" s="35">
+        <v>135</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="31">
+        <v>43217</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="33">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="H35" s="34">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I35" s="35">
+        <v>90</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="31">
+        <v>43219</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="33">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H36" s="34">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="I36" s="35">
+        <v>80</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="31">
+        <v>43222</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="33">
+        <v>0.4375</v>
+      </c>
+      <c r="H37" s="34">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="I37" s="35">
+        <v>75</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="31">
+        <v>43223</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="33">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H38" s="34">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="I38" s="35">
+        <v>150</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
@@ -3036,9 +3349,18 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="F6:F24">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" sqref="F6:F32">
       <formula1>ActivityList</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="The calories you enter in the log are summarized here for the chart. Any changes may result in an error. If you’re sure you want to change this, click Yes Otherwise, click Cancel. " sqref="O2:O5">
@@ -3049,6 +3371,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C12 C8 C4 C16">
       <formula1>"Miles,Kilometers,Steps,Laps,Yards,Meters,Reps,Minutes"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F33">
+      <formula1>ActivityList</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/Semester4GameDevProject/Documentation/Project_TimeActivity.xlsx
+++ b/Semester4GameDevProject/Documentation/Project_TimeActivity.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -202,6 +202,45 @@
   </si>
   <si>
     <t>Refactored some of the code so the gameobjects is added in the code automatically if they are null instead of adding them all manually. Created consumables and consumablescontroller</t>
+  </si>
+  <si>
+    <t>Created the item database, created the ui for my inventory and made the ui work with the item database.</t>
+  </si>
+  <si>
+    <t>Added item stats to the inventory system so they are properly displayed, added icons so they are properly displayed and tried to make IPickUp work on items. And made it so the inventory opens and closes as it should and pauses the game while open.</t>
+  </si>
+  <si>
+    <t>Refactored the characterstats</t>
+  </si>
+  <si>
+    <t>Added a slime that the player can kill and that can kill the player.</t>
+  </si>
+  <si>
+    <t>Made the weapons that were equipped go back in the inventory when another weapon was equipped and refactored/added damage and crit</t>
+  </si>
+  <si>
+    <t>Refactored the playerhealth and slime so the slime uses attackDamage, armour and attackSpeed, the player uses armour and attackDamage. Added Death animation. Added characterStats and equipped weaponn UI on the inventory UI</t>
+  </si>
+  <si>
+    <t>Created events for level, health and stats, made the UI update the inventory stats for the player and the equipped weapon. The ui updates the health, experience and level. Added level to the player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created item pickup, so the player is able to pick up items that monsters drop. Created monster spawner </t>
+  </si>
+  <si>
+    <t>Created questing</t>
+  </si>
+  <si>
+    <t>Created the starting are with an NPC to introduce the player to the game. Created portals.</t>
+  </si>
+  <si>
+    <t>Created passages that is used to transport the player between areas that are next to eachother. Started on setting the town together</t>
+  </si>
+  <si>
+    <t>Worked on making enemies have animations and the city.</t>
+  </si>
+  <si>
+    <t>Worked on the animator for monsters/enemies and refactored the way the loot works</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1099,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1164,7 +1202,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1201,7 +1238,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3630</c:v>
+                  <c:v>5690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,7 +1306,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1372,7 +1408,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1425,11 +1460,11 @@
         </c:dLbls>
         <c:gapWidth val="40"/>
         <c:overlap val="100"/>
-        <c:axId val="-1217676528"/>
-        <c:axId val="-1217667824"/>
+        <c:axId val="-1946393840"/>
+        <c:axId val="-1946390032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1217676528"/>
+        <c:axId val="-1946393840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1474,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1217667824"/>
+        <c:crossAx val="-1946390032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1447,7 +1482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1217667824"/>
+        <c:axId val="-1946390032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1217676528"/>
+        <c:crossAx val="-1946393840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1512,7 +1547,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2153,7 +2187,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="List" displayName="List" ref="E5:J38" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="List" displayName="List" ref="E5:J51" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Subject" dataDxfId="4"/>
@@ -2462,10 +2496,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2516,7 +2550,7 @@
       </c>
       <c r="N2" s="47">
         <f>SUM(B17,B13,B9,B5)</f>
-        <v>4380</v>
+        <v>6440</v>
       </c>
       <c r="O2" s="49" t="s">
         <v>10</v>
@@ -2555,7 +2589,7 @@
       </c>
       <c r="N4" s="52">
         <f>SUM(N2)/60</f>
-        <v>73</v>
+        <v>107.33333333333333</v>
       </c>
       <c r="O4" s="49" t="s">
         <v>9</v>
@@ -2621,7 +2655,7 @@
       </c>
       <c r="B7" s="39">
         <f>SUMIF(List[Subject],Category2,List[Minutes])/60</f>
-        <v>60.5</v>
+        <v>94.833333333333329</v>
       </c>
       <c r="C7" s="15"/>
       <c r="E7" s="31">
@@ -2672,7 +2706,7 @@
       <c r="A9" s="41"/>
       <c r="B9" s="43">
         <f>SUMIF(List[Subject],Category2,List[Minutes])</f>
-        <v>3630</v>
+        <v>5690</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>10</v>
@@ -3335,6 +3369,266 @@
       </c>
       <c r="J38" s="36" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="31">
+        <v>43225</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="33">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H39" s="34">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="I39" s="35">
+        <v>285</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="31">
+        <v>43226</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="33">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H40" s="34">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="I40" s="35">
+        <v>110</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="31">
+        <v>43226</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="33">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="H41" s="34">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I41" s="35">
+        <v>45</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="31">
+        <v>43227</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="33">
+        <v>0.46875</v>
+      </c>
+      <c r="H42" s="34">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="I42" s="35">
+        <v>100</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="31">
+        <v>43227</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="33">
+        <v>0.59375</v>
+      </c>
+      <c r="H43" s="34">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="I43" s="35">
+        <v>75</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="31">
+        <v>43228</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="33">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H44" s="34">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="I44" s="35">
+        <v>185</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="31">
+        <v>43229</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="33">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H45" s="34">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="I45" s="35">
+        <v>230</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="31">
+        <v>43230</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="33">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H46" s="34">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="I46" s="35">
+        <v>155</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="31">
+        <v>43232</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="33">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H47" s="34">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="I47" s="35">
+        <v>150</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="31">
+        <v>43233</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="33">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H48" s="34">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I48" s="35">
+        <v>240</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="31">
+        <v>43235</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="H49" s="34">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I49" s="35">
+        <v>300</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="31">
+        <v>43236</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="33">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="H50" s="34">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I50" s="35">
+        <v>120</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="31">
+        <v>43236</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="33">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="H51" s="34">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="I51" s="35">
+        <v>65</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Semester4GameDevProject/Documentation/Project_TimeActivity.xlsx
+++ b/Semester4GameDevProject/Documentation/Project_TimeActivity.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Designing</t>
   </si>
   <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Created a test player character, player animations, sword and floor. Forgot to make elbows and knees on the character models</t>
   </si>
   <si>
@@ -241,6 +235,15 @@
   </si>
   <si>
     <t>Worked on the animator for monsters/enemies and refactored the way the loot works</t>
+  </si>
+  <si>
+    <t>Created weapons and potions. Worked on the town and start are. Added lights. Refactored the passages to work better.</t>
+  </si>
+  <si>
+    <t>Worked on the story of the game and started to add NPC's with quests that are tied to the story.</t>
+  </si>
+  <si>
+    <t>Started to work on the collect quest so it count properly on the items collected and made the quest giver remove th item from the players list(not UI)</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +727,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -968,22 +974,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Time Used on  Project</a:t>
             </a:r>
           </a:p>
@@ -1010,11 +1014,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1030,10 +1037,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.1208759161515066E-2"/>
-          <c:y val="0.36579555006604564"/>
+          <c:x val="1.9879364531078685E-2"/>
+          <c:y val="7.3112476794059272E-2"/>
           <c:w val="0.84022933030807034"/>
-          <c:h val="0.44821985487108229"/>
+          <c:h val="0.74090263107355481"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1041,22 +1048,22 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Activity Tracker'!$A$3</c:f>
+              <c:f>'Activity Tracker'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Planning</c:v>
+                  <c:v>Unity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1073,13 +1080,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1099,6 +1111,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1130,36 +1143,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Activity Tracker'!$B$5</c:f>
+              <c:f>'Activity Tracker'!$B$7:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>105.16666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Activity Tracker'!$A$7</c:f>
+              <c:f>'Activity Tracker'!$A$11:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unity</c:v>
+                  <c:v>Designing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1176,13 +1187,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1202,6 +1218,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1233,248 +1250,76 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Activity Tracker'!$B$9</c:f>
+              <c:f>'Activity Tracker'!$B$11:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5690</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Activity Tracker'!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Designing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Activity Tracker'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Project</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Activity Tracker'!$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>750</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Activity Tracker'!$A$15:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Testing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Activity Tracker'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Project</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Activity Tracker'!$B$17:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="40"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1946393840"/>
-        <c:axId val="-1946390032"/>
+        <c:axId val="1690742464"/>
+        <c:axId val="1690745728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1946393840"/>
+        <c:axId val="1690742464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1946390032"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690745728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1482,7 +1327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1946390032"/>
+        <c:axId val="1690745728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,7 +1347,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1518,7 +1363,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1533,7 +1378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1946393840"/>
+        <c:crossAx val="1690742464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,7 +1391,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43218072815673714"/>
+          <c:y val="0.74085269829076239"/>
+          <c:w val="0.1196864001172336"/>
+          <c:h val="0.13719608219704246"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1581,9 +1436,16 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1593,7 +1455,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2187,7 +2049,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="List" displayName="List" ref="E5:J51" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="List" displayName="List" ref="E5:J54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Subject" dataDxfId="4"/>
@@ -2496,10 +2358,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2550,20 +2412,15 @@
       </c>
       <c r="N2" s="47">
         <f>SUM(B17,B13,B9,B5)</f>
-        <v>6440</v>
+        <v>7060</v>
       </c>
       <c r="O2" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="39">
-        <f>SUMIF(List[Subject],Category1,List[Minutes])/60</f>
-        <v>0</v>
-      </c>
+      <c r="A3" s="41"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="13"/>
       <c r="E3"/>
       <c r="F3"/>
@@ -2578,9 +2435,7 @@
     <row r="4" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="39"/>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="10"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" s="23"/>
@@ -2589,7 +2444,7 @@
       </c>
       <c r="N4" s="52">
         <f>SUM(N2)/60</f>
-        <v>107.33333333333333</v>
+        <v>117.66666666666667</v>
       </c>
       <c r="O4" s="49" t="s">
         <v>9</v>
@@ -2597,13 +2452,8 @@
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41"/>
-      <c r="B5" s="43">
-        <f>SUMIF(List[Subject],Category1,List[Minutes])</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="11"/>
       <c r="E5" s="21" t="s">
         <v>0</v>
       </c>
@@ -2646,23 +2496,23 @@
         <v>300</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="39">
+        <v>17</v>
+      </c>
+      <c r="B7" s="55">
         <f>SUMIF(List[Subject],Category2,List[Minutes])/60</f>
-        <v>94.833333333333329</v>
+        <v>105.16666666666667</v>
       </c>
       <c r="C7" s="15"/>
       <c r="E7" s="31">
         <v>43152</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="33">
         <v>0.4861111111111111</v>
@@ -2674,7 +2524,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2687,7 +2537,7 @@
         <v>43152</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="33">
         <v>0.82638888888888884</v>
@@ -2699,14 +2549,14 @@
         <v>280</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="43">
         <f>SUMIF(List[Subject],Category2,List[Minutes])</f>
-        <v>5690</v>
+        <v>6310</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>10</v>
@@ -2715,7 +2565,7 @@
         <v>43153</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="33">
         <v>0.58333333333333337</v>
@@ -2727,7 +2577,7 @@
         <v>80</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2738,7 +2588,7 @@
         <v>43153</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="33">
         <v>0.95486111111111116</v>
@@ -2750,7 +2600,7 @@
         <v>40</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2778,7 +2628,7 @@
         <v>130</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2803,7 +2653,7 @@
         <v>320</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2819,7 +2669,7 @@
         <v>43156</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="33">
         <v>0.54166666666666663</v>
@@ -2831,7 +2681,7 @@
         <v>140</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L13" s="6"/>
     </row>
@@ -2843,7 +2693,7 @@
         <v>43158</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G14" s="33">
         <v>0.875</v>
@@ -2855,25 +2705,20 @@
         <v>120</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="39">
-        <f>SUMIF(List[Subject],Category4,List[Minutes])/60</f>
-        <v>0</v>
-      </c>
+      <c r="A15" s="40"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="15"/>
       <c r="D15" s="5"/>
       <c r="E15" s="31">
         <v>43160</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="33">
         <v>0.77083333333333337</v>
@@ -2885,21 +2730,19 @@
         <v>210</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41"/>
       <c r="B16" s="39"/>
-      <c r="C16" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="5"/>
       <c r="E16" s="31">
         <v>43161</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="33">
         <v>0.76388888888888884</v>
@@ -2911,24 +2754,19 @@
         <v>120</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
-      <c r="B17" s="43">
-        <f>SUMIF(List[Subject],Category4,List[Minutes])</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="5"/>
       <c r="E17" s="31">
         <v>43163</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" s="33">
         <v>0.625</v>
@@ -2940,7 +2778,7 @@
         <v>105</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2952,7 +2790,7 @@
         <v>43164</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="33">
         <v>0.93055555555555547</v>
@@ -2964,7 +2802,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2973,7 +2811,7 @@
         <v>43165</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="33">
         <v>0.91666666666666663</v>
@@ -2985,7 +2823,7 @@
         <v>60</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2994,7 +2832,7 @@
         <v>43166</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" s="33">
         <v>0.52777777777777779</v>
@@ -3006,7 +2844,7 @@
         <v>125</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3015,7 +2853,7 @@
         <v>43168</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="33">
         <v>0.76041666666666663</v>
@@ -3027,7 +2865,7 @@
         <v>40</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3036,7 +2874,7 @@
         <v>43173</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" s="33">
         <v>0.91666666666666663</v>
@@ -3048,7 +2886,7 @@
         <v>60</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3056,7 +2894,7 @@
         <v>43174</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23" s="33">
         <v>0.5</v>
@@ -3068,7 +2906,7 @@
         <v>210</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3076,7 +2914,7 @@
         <v>43176</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="33">
         <v>0.58333333333333337</v>
@@ -3088,7 +2926,7 @@
         <v>200</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3096,7 +2934,7 @@
         <v>43183</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G25" s="33">
         <v>0.42708333333333331</v>
@@ -3108,7 +2946,7 @@
         <v>120</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3116,7 +2954,7 @@
         <v>43184</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G26" s="33">
         <v>0.59375</v>
@@ -3128,7 +2966,7 @@
         <v>150</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3136,7 +2974,7 @@
         <v>43191</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G27" s="33">
         <v>0.4236111111111111</v>
@@ -3148,7 +2986,7 @@
         <v>180</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3156,7 +2994,7 @@
         <v>43195</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" s="33">
         <v>0.50694444444444442</v>
@@ -3168,7 +3006,7 @@
         <v>120</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,7 +3014,7 @@
         <v>43197</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" s="33">
         <v>0.45833333333333331</v>
@@ -3188,7 +3026,7 @@
         <v>180</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3196,7 +3034,7 @@
         <v>43198</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G30" s="33">
         <v>0.39583333333333331</v>
@@ -3208,7 +3046,7 @@
         <v>120</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3216,7 +3054,7 @@
         <v>43200</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G31" s="33">
         <v>0.47916666666666669</v>
@@ -3228,7 +3066,7 @@
         <v>150</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3236,7 +3074,7 @@
         <v>43204</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G32" s="33">
         <v>0.58333333333333337</v>
@@ -3248,7 +3086,7 @@
         <v>70</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3256,7 +3094,7 @@
         <v>43209</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G33" s="33">
         <v>0.40277777777777773</v>
@@ -3268,7 +3106,7 @@
         <v>140</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3276,7 +3114,7 @@
         <v>43210</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G34" s="33">
         <v>0.4236111111111111</v>
@@ -3288,7 +3126,7 @@
         <v>135</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3296,7 +3134,7 @@
         <v>43217</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G35" s="33">
         <v>0.63194444444444442</v>
@@ -3308,7 +3146,7 @@
         <v>90</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3316,7 +3154,7 @@
         <v>43219</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G36" s="33">
         <v>0.47916666666666669</v>
@@ -3328,7 +3166,7 @@
         <v>80</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3336,7 +3174,7 @@
         <v>43222</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G37" s="33">
         <v>0.4375</v>
@@ -3348,7 +3186,7 @@
         <v>75</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3356,7 +3194,7 @@
         <v>43223</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G38" s="33">
         <v>0.4236111111111111</v>
@@ -3368,7 +3206,7 @@
         <v>150</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3376,7 +3214,7 @@
         <v>43225</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G39" s="33">
         <v>0.41666666666666669</v>
@@ -3388,7 +3226,7 @@
         <v>285</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3396,7 +3234,7 @@
         <v>43226</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G40" s="33">
         <v>0.4201388888888889</v>
@@ -3408,7 +3246,7 @@
         <v>110</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3416,7 +3254,7 @@
         <v>43226</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G41" s="33">
         <v>0.62847222222222221</v>
@@ -3428,7 +3266,7 @@
         <v>45</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3436,7 +3274,7 @@
         <v>43227</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G42" s="33">
         <v>0.46875</v>
@@ -3448,7 +3286,7 @@
         <v>100</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3456,7 +3294,7 @@
         <v>43227</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G43" s="33">
         <v>0.59375</v>
@@ -3468,7 +3306,7 @@
         <v>75</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3476,7 +3314,7 @@
         <v>43228</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G44" s="33">
         <v>0.55555555555555558</v>
@@ -3488,7 +3326,7 @@
         <v>185</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3496,7 +3334,7 @@
         <v>43229</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G45" s="33">
         <v>0.45833333333333331</v>
@@ -3508,7 +3346,7 @@
         <v>230</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3516,7 +3354,7 @@
         <v>43230</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G46" s="33">
         <v>0.36458333333333331</v>
@@ -3528,7 +3366,7 @@
         <v>155</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3536,7 +3374,7 @@
         <v>43232</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G47" s="33">
         <v>0.44444444444444442</v>
@@ -3548,7 +3386,7 @@
         <v>150</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,7 +3394,7 @@
         <v>43233</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G48" s="33">
         <v>0.41666666666666669</v>
@@ -3568,7 +3406,7 @@
         <v>240</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3576,7 +3414,7 @@
         <v>43235</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G49" s="33">
         <v>0.375</v>
@@ -3588,7 +3426,7 @@
         <v>300</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3596,7 +3434,7 @@
         <v>43236</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G50" s="33">
         <v>0.3576388888888889</v>
@@ -3608,7 +3446,7 @@
         <v>120</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3616,7 +3454,7 @@
         <v>43236</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G51" s="33">
         <v>0.56597222222222221</v>
@@ -3628,7 +3466,67 @@
         <v>65</v>
       </c>
       <c r="J51" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="31">
+        <v>43237</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="33">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H52" s="34">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I52" s="35">
+        <v>240</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="31">
+        <v>43238</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="H53" s="34">
+        <v>0.15625</v>
+      </c>
+      <c r="I53" s="35">
+        <v>225</v>
+      </c>
+      <c r="J53" s="36" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="31">
+        <v>43239</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="33">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H54" s="34">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="I54" s="35">
+        <v>155</v>
+      </c>
+      <c r="J54" s="36" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3720,11 +3618,11 @@
     <row r="4" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="str">
         <f>TRIM(Category1)</f>
-        <v>Planning</v>
-      </c>
-      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="C4">
         <f>Category1Unit</f>
-        <v>Hours</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
